--- a/labels_Q29.xlsx
+++ b/labels_Q29.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au536457_uni_au_dk/Documents/Desktop/Bælgfrugter Fie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2160FF-9695-491A-8BD4-229080C2C7C6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
+    <workbookView xWindow="53880" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,9 +80,6 @@
     <t>Food neophobia</t>
   </si>
   <si>
-    <t>Low/no familiriaty</t>
-  </si>
-  <si>
     <t>Unhealthy</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Unethical production</t>
+  </si>
+  <si>
+    <t>Low/no familiarity</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,114 +482,114 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/labels_Q29.xlsx
+++ b/labels_Q29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au473419_uni_au_dk/Documents/Desktop/PHD/Theme 4 - Survey/Data/pulses21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2160FF-9695-491A-8BD4-229080C2C7C6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{77ABB010-2A98-4E53-9722-A43A62982526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE64AA23-BE55-488C-B045-1F1237D04BEC}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="-2850" windowWidth="29040" windowHeight="15840" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0011E320-9BE6-4B0A-B68D-178C17CF6866}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,6 @@
     <t>No local production</t>
   </si>
   <si>
-    <t>Antinutrients/ Allergences</t>
-  </si>
-  <si>
-    <t>Not envirometally sustainable</t>
-  </si>
-  <si>
     <t>Food neophobia</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Low/no familiarity</t>
+  </si>
+  <si>
+    <t>Antinutrients/ Allergens</t>
+  </si>
+  <si>
+    <t>Not enviromentally sustainable</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,52 +544,52 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
